--- a/examples/validation.data.example.xlsx
+++ b/examples/validation.data.example.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="dict" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +19,96 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+  <si>
+    <t>patient.id</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>urea</t>
+  </si>
+  <si>
+    <t>patient 1</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>patient 2</t>
+  </si>
+  <si>
+    <t>ж</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>patient 3</t>
+  </si>
+  <si>
+    <t>patient 4</t>
+  </si>
+  <si>
+    <t>patient 5</t>
+  </si>
+  <si>
+    <t>patient 6</t>
+  </si>
+  <si>
+    <t>patient 7</t>
+  </si>
+  <si>
+    <t>patient 8</t>
+  </si>
+  <si>
+    <t>patient 9</t>
+  </si>
+  <si>
+    <t>patient 10</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -50,8 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -332,13 +422,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>36.5</v>
+      </c>
+      <c r="F2">
+        <v>170</v>
+      </c>
+      <c r="G2">
+        <v>78</v>
+      </c>
+      <c r="H2">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="I2">
+        <v>4.95</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>36.6</v>
+      </c>
+      <c r="F3">
+        <v>172</v>
+      </c>
+      <c r="G3">
+        <v>65</v>
+      </c>
+      <c r="H3">
+        <v>71.2</v>
+      </c>
+      <c r="I3">
+        <v>6.11</v>
+      </c>
+      <c r="J3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F4">
+        <v>190</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>62.62</v>
+      </c>
+      <c r="I4">
+        <v>5.19</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>74.569999999999993</v>
+      </c>
+      <c r="I5">
+        <v>4.21</v>
+      </c>
+      <c r="J5">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>36.5</v>
+      </c>
+      <c r="F6">
+        <v>192</v>
+      </c>
+      <c r="G6">
+        <v>99</v>
+      </c>
+      <c r="H6">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="I6">
+        <v>4.38</v>
+      </c>
+      <c r="J6">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>36.5</v>
+      </c>
+      <c r="F7">
+        <v>175</v>
+      </c>
+      <c r="G7">
+        <v>70</v>
+      </c>
+      <c r="H7">
+        <v>66.13</v>
+      </c>
+      <c r="I7">
+        <v>4.79</v>
+      </c>
+      <c r="J7">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>36.6</v>
+      </c>
+      <c r="F8">
+        <v>192</v>
+      </c>
+      <c r="G8">
+        <v>87</v>
+      </c>
+      <c r="H8">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="I8">
+        <v>4.67</v>
+      </c>
+      <c r="J8">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F9">
+        <v>179</v>
+      </c>
+      <c r="G9">
+        <v>67</v>
+      </c>
+      <c r="H9">
+        <v>70.36</v>
+      </c>
+      <c r="I9">
+        <v>4.08</v>
+      </c>
+      <c r="J9">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>36.6</v>
+      </c>
+      <c r="F10">
+        <v>174</v>
+      </c>
+      <c r="G10">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>63.54</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F11">
+        <v>182</v>
+      </c>
+      <c r="G11">
+        <v>85</v>
+      </c>
+      <c r="H11">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="I11">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J11">
+        <v>6.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="8">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Повторяющиеся данные!" error="Значение идентификатора должно быть уникальным!" promptTitle="Идентификатор пациента" prompt="Значение уникально в пределах всего исследования" sqref="A1:A1048576 D12">
+      <formula1>COUNTIF(A$1:A$1000,A1)&lt;=1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Возраст" prompt="Полных лет" sqref="C1:C1048576">
+      <formula1>0</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Температура тела" prompt="в °C" sqref="E1:E1048576">
+      <formula1>30</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Рост" prompt="в см" sqref="F1:F1048576">
+      <formula1>50</formula1>
+      <formula2>250</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Вес" prompt="в кг" sqref="G1:G1048576">
+      <formula1>20</formula1>
+      <formula2>300</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Концентрация белка" prompt="в г/л" sqref="H1:H1048576">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Концентрация глюкозы" prompt="в ммоль/л" sqref="I1:I1048576">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Концентрация мочевины" prompt="в ммоль/л" sqref="J1:J1048576">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Пол" prompt="Половая принадлежность_x000a_м - мужчина_x000a_ж - женщина">
+          <x14:formula1>
+            <xm:f>dict!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Исследуемая группа" prompt="T - исследуемый лекарственный препарат_x000a_R - лекарственный препарат сравнения">
+          <x14:formula1>
+            <xm:f>dict!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D11 D13:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/examples/validation.data.example.xlsx
+++ b/examples/validation.data.example.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="dict" sheetId="2" r:id="rId2"/>
+    <sheet name="dict" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -424,9 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
